--- a/FileShare/results/TotalMeasurements.1209108049957.byFile.MK.Toshiba.nonEclipse.-Xint.-server.xlsx
+++ b/FileShare/results/TotalMeasurements.1209108049957.byFile.MK.Toshiba.nonEclipse.-Xint.-server.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="TotalMeasurements.1209108049957" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TotalMeasurements.1209108049957!$A$1:$G$41</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -113,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +234,19 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -574,9 +590,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -915,34 +933,36 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F22" sqref="F22:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="15.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -970,26 +990,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" ht="15.75" hidden="1">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>70552262</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>73004040</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>70869621</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>79886689</v>
       </c>
       <c r="H2">
@@ -1017,26 +1037,26 @@
         <v>70552262</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" ht="15.75" hidden="1">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>3632</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2">
+        <v>3632</v>
+      </c>
+      <c r="E3" s="2">
         <v>4191</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>3912</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>5308</v>
       </c>
       <c r="H3">
@@ -1064,26 +1084,26 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" ht="15.75" hidden="1">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>55484147</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>59323741</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>58253773</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>65982688</v>
       </c>
       <c r="H4">
@@ -1111,26 +1131,26 @@
         <v>55484147</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" ht="15.75" hidden="1">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3073</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>3422</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>3631</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>3632</v>
       </c>
       <c r="H5">
@@ -1158,26 +1178,26 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" ht="15.75" hidden="1">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>85155516</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>87425916</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>87570906</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>89898018</v>
       </c>
       <c r="H6">
@@ -1205,26 +1225,26 @@
         <v>85155516</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:15" ht="15.75" hidden="1">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3352</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>3562</v>
       </c>
-      <c r="F7" s="1">
-        <v>3632</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="3">
+        <v>3632</v>
+      </c>
+      <c r="G7" s="2">
         <v>3632</v>
       </c>
       <c r="H7">
@@ -1252,26 +1272,26 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" ht="15.75" hidden="1">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>69485926</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>72289285</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>70885266</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>78573674</v>
       </c>
       <c r="H8">
@@ -1299,26 +1319,26 @@
         <v>70885266</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:15" ht="15.75" hidden="1">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>3073</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>3492</v>
       </c>
-      <c r="F9" s="1">
-        <v>3632</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="3">
+        <v>3632</v>
+      </c>
+      <c r="G9" s="2">
         <v>3911</v>
       </c>
       <c r="H9">
@@ -1346,26 +1366,26 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
+    <row r="10" spans="1:15" ht="15.75" hidden="1">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>38622506</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>39862748</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>40153148</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>41550253</v>
       </c>
       <c r="H10">
@@ -1393,26 +1413,26 @@
         <v>40153148</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" ht="15.75" hidden="1">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11">
-        <v>3632</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="2">
+        <v>3632</v>
+      </c>
+      <c r="E11" s="2">
         <v>5238</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>4190</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>9498</v>
       </c>
       <c r="H11">
@@ -1440,26 +1460,26 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:15" ht="15.75" hidden="1">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>47656057</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>50907657</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>49634241</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>58507156</v>
       </c>
       <c r="H12">
@@ -1487,26 +1507,26 @@
         <v>47833174</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
+    <row r="13" spans="1:15" ht="15.75" hidden="1">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>3352</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>3631</v>
       </c>
-      <c r="F13" s="1">
-        <v>3632</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="3">
+        <v>3632</v>
+      </c>
+      <c r="G13" s="2">
         <v>3911</v>
       </c>
       <c r="H13">
@@ -1534,26 +1554,26 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
+    <row r="14" spans="1:15" ht="15.75" hidden="1">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>17983571</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>18454650</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>18186669</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>19566454</v>
       </c>
       <c r="H14">
@@ -1581,26 +1601,26 @@
         <v>19566454</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
+    <row r="15" spans="1:15" ht="15.75" hidden="1">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>2234</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>3212</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>3631</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>3632</v>
       </c>
       <c r="H15">
@@ -1628,26 +1648,26 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
+    <row r="16" spans="1:15" ht="15.75" hidden="1">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>43892171</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>44922329</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>44613212</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>47265225</v>
       </c>
       <c r="H16">
@@ -1675,26 +1695,26 @@
         <v>44613212</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
+    <row r="17" spans="1:15" ht="15.75" hidden="1">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>3352</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>3492</v>
       </c>
-      <c r="F17" s="1">
-        <v>3632</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="3">
+        <v>3632</v>
+      </c>
+      <c r="G17" s="2">
         <v>3632</v>
       </c>
       <c r="H17">
@@ -1722,26 +1742,26 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
+    <row r="18" spans="1:15" ht="15.75" hidden="1">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>54252426</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>54872197</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>54905582</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>55605112</v>
       </c>
       <c r="H18">
@@ -1769,26 +1789,26 @@
         <v>54252426</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
+    <row r="19" spans="1:15" ht="15.75" hidden="1">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>3353</v>
       </c>
-      <c r="E19">
-        <v>3632</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3632</v>
-      </c>
-      <c r="G19">
+      <c r="E19" s="2">
+        <v>3632</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3632</v>
+      </c>
+      <c r="G19" s="2">
         <v>4191</v>
       </c>
       <c r="H19">
@@ -1816,26 +1836,26 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
+    <row r="20" spans="1:15" ht="15.75" hidden="1">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>55700376</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>56062013</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>56306597</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>56489303</v>
       </c>
       <c r="H20">
@@ -1863,26 +1883,26 @@
         <v>55700376</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
+    <row r="21" spans="1:15" ht="15.75" hidden="1">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>2793</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>3142</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>3352</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>3632</v>
       </c>
       <c r="H21">
@@ -1910,26 +1930,26 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
+    <row r="22" spans="1:15" ht="15.75">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>2107258324</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>2138071319</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>2137582291</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>2198911873</v>
       </c>
       <c r="H22">
@@ -1957,26 +1977,26 @@
         <v>2107258324</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
+    <row r="23" spans="1:15" ht="15.75">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>3073</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>3562</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>3353</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>4470</v>
       </c>
       <c r="H23">
@@ -2004,26 +2024,26 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
+    <row r="24" spans="1:15" ht="15.75">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>2335442913</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>2395851707</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>2380802029</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>2505615379</v>
       </c>
       <c r="H24">
@@ -2051,26 +2071,26 @@
         <v>2361546510</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
+    <row r="25" spans="1:15" ht="15.75">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>3352</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>3631</v>
       </c>
-      <c r="F25" s="1">
-        <v>3632</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="3">
+        <v>3632</v>
+      </c>
+      <c r="G25" s="2">
         <v>3911</v>
       </c>
       <c r="H25">
@@ -2098,26 +2118,26 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
+    <row r="26" spans="1:15" ht="15.75">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>3971214218</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>3993636062</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>4005410464</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>4017135139</v>
       </c>
       <c r="H26">
@@ -2145,26 +2165,26 @@
         <v>4005410464</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
+    <row r="27" spans="1:15" ht="15.75">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>3352</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>3841</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>3912</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>4749</v>
       </c>
       <c r="H27">
@@ -2192,26 +2212,26 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
+    <row r="28" spans="1:15" ht="15.75">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>2478181725</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>2515250192</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>2516390211</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>2578840328</v>
       </c>
       <c r="H28">
@@ -2239,26 +2259,26 @@
         <v>2487588507</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
+    <row r="29" spans="1:15" ht="15.75">
+      <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>3352</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>3771</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>3911</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>4190</v>
       </c>
       <c r="H29">
@@ -2286,26 +2306,26 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
+    <row r="30" spans="1:15" ht="15.75">
+      <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>2835312310</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>2849856336</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>2850900045</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>2876368085</v>
       </c>
       <c r="H30">
@@ -2333,26 +2353,26 @@
         <v>2836844906</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
+    <row r="31" spans="1:15" ht="15.75">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>2794</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>3561</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>3911</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>3911</v>
       </c>
       <c r="H31">
@@ -2380,26 +2400,26 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
+    <row r="32" spans="1:15" ht="15.75">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>3235234925</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>3257714877</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>3265427869</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>3266910180</v>
       </c>
       <c r="H32">
@@ -2427,26 +2447,26 @@
         <v>3266910180</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" t="s">
+    <row r="33" spans="1:15" ht="15.75">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>3073</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>3631</v>
       </c>
-      <c r="F33" s="1">
-        <v>3632</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="3">
+        <v>3632</v>
+      </c>
+      <c r="G33" s="2">
         <v>4190</v>
       </c>
       <c r="H33">
@@ -2474,26 +2494,26 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
+    <row r="34" spans="1:15" ht="15.75">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>3332003369</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>3347996812</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>3349374292</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>3364476490</v>
       </c>
       <c r="H34">
@@ -2521,26 +2541,26 @@
         <v>3364476490</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
+    <row r="35" spans="1:15" ht="15.75">
+      <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>3353</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>3562</v>
       </c>
-      <c r="F35" s="1">
-        <v>3632</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="3">
+        <v>3632</v>
+      </c>
+      <c r="G35" s="2">
         <v>3632</v>
       </c>
       <c r="H35">
@@ -2568,26 +2588,26 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
+    <row r="36" spans="1:15" ht="15.75">
+      <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>2914026503</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>2939852341</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="3">
         <v>2948733708</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>2961263233</v>
       </c>
       <c r="H36">
@@ -2615,26 +2635,26 @@
         <v>2948733708</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
+    <row r="37" spans="1:15" ht="15.75">
+      <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>3073</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>3492</v>
       </c>
-      <c r="F37" s="1">
-        <v>3632</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="3">
+        <v>3632</v>
+      </c>
+      <c r="G37" s="2">
         <v>3911</v>
       </c>
       <c r="H37">
@@ -2662,26 +2682,26 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" t="s">
+    <row r="38" spans="1:15" ht="15.75">
+      <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3551977416</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>3576312631</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <v>3570833444</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>3621951952</v>
       </c>
       <c r="H38">
@@ -2709,26 +2729,26 @@
         <v>3570833444</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
+    <row r="39" spans="1:15" ht="15.75">
+      <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39">
-        <v>3632</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="2">
+        <v>3632</v>
+      </c>
+      <c r="E39" s="2">
         <v>3981</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>4190</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>4191</v>
       </c>
       <c r="H39">
@@ -2756,26 +2776,26 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" t="s">
+    <row r="40" spans="1:15" ht="15.75">
+      <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>3673516606</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>3702747067</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="3">
         <v>3709259697</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>3720727635</v>
       </c>
       <c r="H40">
@@ -2803,26 +2823,26 @@
         <v>3720727635</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" t="s">
+    <row r="41" spans="1:15" ht="15.75">
+      <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>3073</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>3701</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>3911</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>3911</v>
       </c>
       <c r="H41">
@@ -2852,6 +2872,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>